--- a/Kontrast.xlsx
+++ b/Kontrast.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlvi2\OneDrive\Desktop\Physik\Fortgeschr. Praktikum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudoitmc-my.sharepoint.com/personal/celina_kortmann_study_tu-dortmund_de/Documents/Dokumente/Studium/6. Semester/FP/V64---Moderne-Interferometrie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046A45AA-81C4-473C-BC75-6336BD81F301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{046A45AA-81C4-473C-BC75-6336BD81F301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25A69E05-E448-4987-BEFE-DD72C666B768}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{96833207-722F-4B12-A0E1-124E015979C2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{96833207-722F-4B12-A0E1-124E015979C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t xml:space="preserve">angle in ° </t>
   </si>
@@ -46,13 +46,21 @@
   <si>
     <t>minimum in V</t>
   </si>
+  <si>
+    <t>Mittelwert</t>
+  </si>
+  <si>
+    <t>Kontrast</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -91,9 +99,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -465,20 +475,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5A9853-F29C-4A5B-A933-32876B84CCCA}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="136" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
+    <col min="10" max="10" width="10.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,10 +497,19 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -503,16 +523,28 @@
         <v>1.48</v>
       </c>
       <c r="E2" s="1">
+        <f>(B2+C2+D2)/3</f>
+        <v>1.5033333333333332</v>
+      </c>
+      <c r="F2" s="1">
         <v>1.83</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1.78</v>
       </c>
       <c r="G2" s="1">
         <v>1.78</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="I2" s="2">
+        <f>(F2+G2+H2)/3</f>
+        <v>1.7966666666666669</v>
+      </c>
+      <c r="J2" s="3">
+        <f>(I2-E2)/(E2+I2)</f>
+        <v>8.8888888888888989E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5</v>
       </c>
@@ -526,16 +558,28 @@
         <v>1.27</v>
       </c>
       <c r="E3" s="1">
+        <f t="shared" ref="E3:E38" si="0">(B3+C3+D3)/3</f>
+        <v>1.2633333333333334</v>
+      </c>
+      <c r="F3" s="1">
         <v>1.53</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>1.58</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>1.59</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I38" si="1">(F3+G3+H3)/3</f>
+        <v>1.5666666666666667</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J38" si="2">(I3-E3)/(E3+I3)</f>
+        <v>0.10718492343934036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>10</v>
       </c>
@@ -549,16 +593,28 @@
         <v>0.98</v>
       </c>
       <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.01</v>
+      </c>
+      <c r="F4" s="1">
         <v>1.56</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.55</v>
       </c>
       <c r="G4" s="1">
         <v>1.55</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5533333333333335</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.21196358907672305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>15</v>
       </c>
@@ -572,18 +628,30 @@
         <v>0.68</v>
       </c>
       <c r="E5" s="1">
-        <v>1.56</v>
+        <f t="shared" si="0"/>
+        <v>0.67666666666666675</v>
       </c>
       <c r="F5" s="1">
         <v>1.56</v>
       </c>
       <c r="G5" s="1">
+        <v>1.56</v>
+      </c>
+      <c r="H5" s="1">
         <v>1.53</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" s="2">
+        <f t="shared" si="1"/>
+        <v>1.55</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.39221556886227543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
-        <f t="shared" ref="A6:A38" si="0">A5+5</f>
+        <f t="shared" ref="A6:A38" si="3">A5+5</f>
         <v>20</v>
       </c>
       <c r="B6" s="1">
@@ -596,18 +664,30 @@
         <v>0.49</v>
       </c>
       <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="F6" s="1">
         <v>1.48</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>1.49</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4733333333333334</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.50853242320819114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B7" s="1">
@@ -620,18 +700,30 @@
         <v>0.32</v>
       </c>
       <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="F7" s="1">
         <v>1.46</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>1.47</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>1.41</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4466666666666665</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.64705882352941169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B8" s="1">
@@ -644,18 +736,30 @@
         <v>0.18</v>
       </c>
       <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19333333333333336</v>
+      </c>
+      <c r="F8" s="1">
         <v>1.3</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>1.34</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>1.39</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3433333333333335</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.74837310195227769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B9" s="1">
@@ -668,18 +772,30 @@
         <v>0.1</v>
       </c>
       <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10333333333333335</v>
+      </c>
+      <c r="F9" s="1">
         <v>1.4</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>1.41</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>1.42</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>1.41</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="2"/>
+        <v>0.86343612334801767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B10" s="1">
@@ -692,18 +808,30 @@
         <v>0.09</v>
       </c>
       <c r="E10" s="1">
-        <v>1.47</v>
+        <f t="shared" si="0"/>
+        <v>7.6666666666666675E-2</v>
       </c>
       <c r="F10" s="1">
         <v>1.47</v>
       </c>
       <c r="G10" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="H10" s="1">
         <v>1.44</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10" s="2">
+        <f t="shared" si="1"/>
+        <v>1.46</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.90021691973969631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="B11" s="1">
@@ -716,18 +844,30 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>5.6666666666666671E-2</v>
+      </c>
+      <c r="F11" s="1">
         <v>1.53</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1.52</v>
       </c>
       <c r="G11" s="1">
         <v>1.52</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5233333333333334</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.92827004219409281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="B12" s="1">
@@ -740,18 +880,30 @@
         <v>0.04</v>
       </c>
       <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="F12" s="1">
         <v>1.71</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>1.69</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>1.71</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7033333333333331</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.94296577946768056</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="B13" s="1">
@@ -764,7 +916,8 @@
         <v>0.08</v>
       </c>
       <c r="E13" s="1">
-        <v>1.81</v>
+        <f t="shared" si="0"/>
+        <v>7.3333333333333348E-2</v>
       </c>
       <c r="F13" s="1">
         <v>1.81</v>
@@ -772,10 +925,21 @@
       <c r="G13" s="1">
         <v>1.81</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1">
+        <v>1.81</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8099999999999998</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="2"/>
+        <v>0.92212389380530979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="B14" s="1">
@@ -788,18 +952,30 @@
         <v>0.15</v>
       </c>
       <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14333333333333334</v>
+      </c>
+      <c r="F14" s="1">
         <v>1.94</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>1.91</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>1.92</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9233333333333331</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="2"/>
+        <v>0.8612903225806452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="B15" s="1">
@@ -812,18 +988,30 @@
         <v>0.21</v>
       </c>
       <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21</v>
+      </c>
+      <c r="F15" s="1">
         <v>2.0699999999999998</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>2.0499999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="2"/>
+        <v>0.81415929203539827</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="B16" s="1">
@@ -836,18 +1024,30 @@
         <v>0.43</v>
       </c>
       <c r="E16" s="1">
-        <v>2.33</v>
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="F16" s="1">
         <v>2.33</v>
       </c>
       <c r="G16" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="H16" s="1">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" s="2">
+        <f t="shared" si="1"/>
+        <v>2.35</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="2"/>
+        <v>0.70289855072463769</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="B17" s="1">
@@ -860,18 +1060,30 @@
         <v>0.62</v>
       </c>
       <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.64333333333333342</v>
+      </c>
+      <c r="F17" s="1">
         <v>2.2000000000000002</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2.2599999999999998</v>
       </c>
       <c r="G17" s="1">
         <v>2.2599999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2399999999999998</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.5537572254335259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="B18" s="1">
@@ -884,18 +1096,30 @@
         <v>0.96</v>
       </c>
       <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98</v>
+      </c>
+      <c r="F18" s="1">
         <v>2.1</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>2.21</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1700000000000004</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="2"/>
+        <v>0.37777777777777788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="B19" s="1">
@@ -908,18 +1132,30 @@
         <v>1.26</v>
       </c>
       <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2866666666666668</v>
+      </c>
+      <c r="F19" s="1">
         <v>1.97</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2.15</v>
       </c>
       <c r="G19" s="1">
         <v>2.15</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="1"/>
+        <v>2.09</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="2"/>
+        <v>0.2379072063178676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="B20" s="1">
@@ -932,18 +1168,30 @@
         <v>1.75</v>
       </c>
       <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7466666666666668</v>
+      </c>
+      <c r="F20" s="1">
         <v>2.06</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>2.0699999999999998</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>2.15</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0933333333333333</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="2"/>
+        <v>9.0277777777777721E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="B21" s="1">
@@ -956,18 +1204,30 @@
         <v>1.92</v>
       </c>
       <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9133333333333333</v>
+      </c>
+      <c r="F21" s="1">
         <v>2.44</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2.5299999999999998</v>
       </c>
       <c r="G21" s="1">
         <v>2.5299999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="2"/>
+        <v>0.13293051359516617</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="B22" s="1">
@@ -980,18 +1240,30 @@
         <v>1.45</v>
       </c>
       <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.51</v>
+      </c>
+      <c r="F22" s="1">
         <v>3.14</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>3.12</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22" s="2">
+        <f t="shared" si="1"/>
+        <v>3.1333333333333333</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.34960516870064606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="B23" s="1">
@@ -1004,18 +1276,30 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="F23" s="1">
         <v>3.66</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>3.68</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>3.65</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23" s="2">
+        <f t="shared" si="1"/>
+        <v>3.6633333333333336</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="2"/>
+        <v>0.51690821256038655</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="B24" s="1">
@@ -1028,18 +1312,30 @@
         <v>0.88</v>
       </c>
       <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.92666666666666664</v>
+      </c>
+      <c r="F24" s="1">
         <v>4.3899999999999997</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>4.43</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>4.41</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24" s="2">
+        <f t="shared" si="1"/>
+        <v>4.41</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="2"/>
+        <v>0.65271705184259832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="B25" s="1">
@@ -1052,18 +1348,30 @@
         <v>0.6</v>
       </c>
       <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="F25" s="1">
         <v>4.8600000000000003</v>
-      </c>
-      <c r="F25" s="1">
-        <v>4.8499999999999996</v>
       </c>
       <c r="G25" s="1">
         <v>4.8499999999999996</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="1">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="1"/>
+        <v>4.8533333333333335</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="2"/>
+        <v>0.77995110024449887</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="B26" s="1">
@@ -1076,18 +1384,30 @@
         <v>0.4</v>
       </c>
       <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.40333333333333332</v>
+      </c>
+      <c r="F26" s="1">
         <v>5.45</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>5.44</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26" s="2">
+        <f t="shared" si="1"/>
+        <v>5.4466666666666663</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="2"/>
+        <v>0.86210826210826208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="B27" s="1">
@@ -1100,18 +1420,30 @@
         <v>0.22</v>
       </c>
       <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+      <c r="F27" s="1">
         <v>5.85</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>5.82</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>5.87</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27" s="2">
+        <f t="shared" si="1"/>
+        <v>5.8466666666666667</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="2"/>
+        <v>0.92747252747252751</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="B28" s="1">
@@ -1124,18 +1456,30 @@
         <v>0.15</v>
       </c>
       <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F28" s="1">
         <v>5.98</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>6.01</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>6.03</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28" s="2">
+        <f t="shared" si="1"/>
+        <v>6.0066666666666668</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="2"/>
+        <v>0.95127233351380602</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>135</v>
       </c>
       <c r="B29" s="1">
@@ -1148,18 +1492,30 @@
         <v>0.15</v>
       </c>
       <c r="E29" s="1">
-        <v>5.9</v>
+        <f t="shared" si="0"/>
+        <v>0.1466666666666667</v>
       </c>
       <c r="F29" s="1">
         <v>5.9</v>
       </c>
       <c r="G29" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="H29" s="1">
         <v>5.99</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29" s="2">
+        <f t="shared" si="1"/>
+        <v>5.93</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="2"/>
+        <v>0.95172792100932535</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="B30" s="1">
@@ -1172,7 +1528,8 @@
         <v>0.22</v>
       </c>
       <c r="E30" s="1">
-        <v>5.94</v>
+        <f t="shared" si="0"/>
+        <v>0.22333333333333336</v>
       </c>
       <c r="F30" s="1">
         <v>5.94</v>
@@ -1180,10 +1537,21 @@
       <c r="G30" s="1">
         <v>5.94</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="1">
+        <v>5.94</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="1"/>
+        <v>5.94</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" si="2"/>
+        <v>0.92752839372633844</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>145</v>
       </c>
       <c r="B31" s="1">
@@ -1196,18 +1564,30 @@
         <v>0.32</v>
       </c>
       <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="F31" s="1">
         <v>5.4</v>
-      </c>
-      <c r="F31" s="1">
-        <v>5.31</v>
       </c>
       <c r="G31" s="1">
         <v>5.31</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="1">
+        <v>5.31</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="1"/>
+        <v>5.34</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="2"/>
+        <v>0.84988452655889135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="B32" s="1">
@@ -1220,18 +1600,30 @@
         <v>0.52</v>
       </c>
       <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.52666666666666673</v>
+      </c>
+      <c r="F32" s="1">
         <v>5.1100000000000003</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>5.09</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32" s="2">
+        <f t="shared" si="1"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" si="2"/>
+        <v>0.81279620853080581</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>155</v>
       </c>
       <c r="B33" s="1">
@@ -1244,18 +1636,30 @@
         <v>0.79</v>
       </c>
       <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="F33" s="1">
         <v>4.3</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <v>4.4800000000000004</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>4.46</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I33" s="2">
+        <f t="shared" si="1"/>
+        <v>4.413333333333334</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" si="2"/>
+        <v>0.69852469531751127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="B34" s="1">
@@ -1268,18 +1672,30 @@
         <v>0.96</v>
       </c>
       <c r="E34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96333333333333326</v>
+      </c>
+      <c r="F34" s="1">
         <v>3.98</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <v>3.95</v>
       </c>
-      <c r="G34" s="1">
+      <c r="H34" s="1">
         <v>3.96</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I34" s="2">
+        <f t="shared" si="1"/>
+        <v>3.9633333333333334</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" si="2"/>
+        <v>0.60893098782138022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
       <c r="B35" s="1">
@@ -1292,18 +1708,30 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="E35" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1333333333333331</v>
+      </c>
+      <c r="F35" s="1">
         <v>3.15</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G35" s="1">
         <v>3.19</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I35" s="2">
+        <f t="shared" si="1"/>
+        <v>3.16</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" si="2"/>
+        <v>0.47204968944099396</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="B36" s="1">
@@ -1316,7 +1744,8 @@
         <v>1.34</v>
       </c>
       <c r="E36" s="1">
-        <v>2.78</v>
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="F36" s="1">
         <v>2.78</v>
@@ -1324,10 +1753,21 @@
       <c r="G36" s="1">
         <v>2.78</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="1">
+        <v>2.78</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="1"/>
+        <v>2.78</v>
+      </c>
+      <c r="J36" s="3">
+        <f t="shared" si="2"/>
+        <v>0.35170178282009723</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>175</v>
       </c>
       <c r="B37" s="1">
@@ -1340,18 +1780,30 @@
         <v>1.47</v>
       </c>
       <c r="E37" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4733333333333334</v>
+      </c>
+      <c r="F37" s="1">
         <v>2.27</v>
       </c>
-      <c r="F37" s="1">
+      <c r="G37" s="1">
         <v>2.2599999999999998</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I37" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="J37" s="3">
+        <f t="shared" si="2"/>
+        <v>0.21071428571428563</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="B38" s="1">
@@ -1364,16 +1816,29 @@
         <v>1.5</v>
       </c>
       <c r="E38" s="1">
-        <v>1.69</v>
+        <f t="shared" si="0"/>
+        <v>1.5033333333333332</v>
       </c>
       <c r="F38" s="1">
         <v>1.69</v>
       </c>
       <c r="G38" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="H38" s="1">
         <v>1.68</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6866666666666665</v>
+      </c>
+      <c r="J38" s="3">
+        <f t="shared" si="2"/>
+        <v>5.7471264367816105E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>